--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caryz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Test01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59B3E16-03E0-4F62-87D7-5ED4EA08FC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BEF29-1A51-4744-8927-527DC29E7ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>输入及外部条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,18 +76,6 @@
   </si>
   <si>
     <t>month&gt;12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闰年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>year%4==0   &amp;&amp;year%100!=0   ||year%400==0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>year%4!=0  ||(year%100==0  &amp;&amp;year%400!=0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,6 +205,38 @@
   </si>
   <si>
     <t>数字和最后一位的X或x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +312,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,23 +594,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.4140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,13 +634,28 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -623,33 +666,75 @@
       <c r="E2" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -665,164 +750,344 @@
       <c r="E5" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="G6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1">
         <v>5</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="G8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E9" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="G10" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
+      <c r="G12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1">
-        <v>9</v>
-      </c>
+      <c r="G14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="G16" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
         <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>26</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Test01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BEF29-1A51-4744-8927-527DC29E7ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2B704B-DE17-4E87-BF2D-048601D98B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
   <si>
     <t>输入及外部条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,14 +52,6 @@
   </si>
   <si>
     <t>year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0&lt;=year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>year&lt;0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,12 +231,88 @@
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面忘了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面忘了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,6,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0&lt;=year&lt;=9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,6,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,7,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,8,9,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5,8,10,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,13 +356,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -306,16 +388,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,31 +686,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.58203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,27 +731,33 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -667,431 +769,1246 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>12</v>
       </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H3" s="1">
         <v>2023</v>
       </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
       <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
         <v>26</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>13</v>
       </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
       <c r="G4" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H4" s="1">
         <v>2023</v>
       </c>
-      <c r="H4" s="1">
-        <v>4</v>
-      </c>
       <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>6</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>14</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H5" s="2">
         <v>2023</v>
       </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
         <v>30</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>15</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>110108</v>
+      </c>
+      <c r="H6" s="3">
         <v>2023</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="3">
         <v>28</v>
       </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>16</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H7" s="2">
         <v>2023</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="2">
         <v>31</v>
       </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>17</v>
       </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
       <c r="G8" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H8" s="1">
         <v>2023</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>26</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>7</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>18</v>
       </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
       <c r="G9" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H9" s="1">
         <v>2023</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>12</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>26</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>19</v>
       </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
       <c r="G10" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H10" s="1">
         <v>2020</v>
       </c>
-      <c r="H10" s="1">
-        <v>4</v>
-      </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>20</v>
       </c>
-      <c r="G11" s="1">
+      <c r="F11" s="2">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H11" s="2">
         <v>2020</v>
       </c>
-      <c r="H11" s="1">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2">
         <v>30</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>9</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="M11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>21</v>
       </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
       <c r="G12" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H12" s="1">
         <v>2020</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>29</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <v>22</v>
       </c>
-      <c r="G13" s="1">
+      <c r="F13" s="2">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H13" s="2">
         <v>2020</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="2">
         <v>31</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>23</v>
       </c>
-      <c r="G14" s="1">
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H14" s="2">
         <v>2000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="2">
         <v>29</v>
       </c>
-      <c r="J14" s="1">
-        <v>4</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1">
         <v>24</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="F15" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2">
         <v>26</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <v>5</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1">
         <v>25</v>
       </c>
+      <c r="F16" s="1">
+        <v>14</v>
+      </c>
       <c r="G16" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H16" s="1">
         <v>2024</v>
       </c>
-      <c r="H16" s="1">
-        <v>4</v>
-      </c>
       <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1">
         <v>26</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>25</v>
+      </c>
+      <c r="K17" s="1">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F18" s="2">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I18" s="2">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G17" s="1">
-        <v>2024</v>
-      </c>
-      <c r="H17" s="1">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="L20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
         <v>26</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>41</v>
+      <c r="M21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="1">
+        <v>11</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>26</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="1">
+        <v>12</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="2">
+        <v>13</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>26</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="2">
+        <v>15</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>110108</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I25" s="2">
+        <v>13</v>
+      </c>
+      <c r="J25" s="2">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>4</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="2">
+        <v>16</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="1">
+        <v>17</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>30</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="1">
+        <v>18</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F28" s="1">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="1">
+        <v>19</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F29" s="1">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>29</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="1">
+        <v>20</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>6</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="1">
+        <v>21</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F31" s="1">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="1">
+        <v>22</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F32" s="1">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>8</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="1">
+        <v>23</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F33" s="1">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1">
+        <v>32</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="1">
+        <v>24</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F34" s="1">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1">
+        <v>110108</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1">
+        <v>26</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="1">
+        <v>25</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>